--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15220"/>
   </bookViews>
   <sheets>
-    <sheet name="道具表" sheetId="4" r:id="rId1"/>
+    <sheet name="武器表" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>$type#default=装备</t>
+  </si>
+  <si>
+    <t>EquipType</t>
+  </si>
+  <si>
+    <t>EffectList</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -47,6 +56,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>EEquipType</t>
+  </si>
+  <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -56,10 +71,25 @@
     <t>名字</t>
   </si>
   <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>木弓</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>黑戒</t>
+  </si>
+  <si>
+    <t>配饰</t>
+  </si>
+  <si>
+    <t>铜镜</t>
+  </si>
+  <si>
+    <t>麻布衣</t>
+  </si>
+  <si>
+    <t>披挂</t>
   </si>
 </sst>
 </file>
@@ -682,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +724,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1019,23 +1052,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="12.3928571428571" style="2" customWidth="1"/>
-    <col min="4" max="7" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5803571428571" style="3" customWidth="1"/>
-    <col min="9" max="11" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.16964285714286" style="2"/>
+    <col min="4" max="4" width="10.7410714285714" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3928571428571" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.4375" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5803571428571" style="3" customWidth="1"/>
+    <col min="11" max="13" width="10.5803571428571" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.16964285714286" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,16 +1081,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1062,34 +1113,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30005</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30005</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15220"/>
+    <workbookView windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>披挂</t>
+  </si>
+  <si>
+    <t>无锋剑</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>30004</t>
   </si>
 </sst>
 </file>
@@ -712,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -727,6 +736,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="12.3928571428571" style="2" customWidth="1"/>
@@ -1174,6 +1186,20 @@
         <v>30003</v>
       </c>
     </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>30004</t>
+  </si>
+  <si>
+    <t>玉扣</t>
   </si>
 </sst>
 </file>
@@ -1064,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="2" width="9.16964285714286" style="2"/>
     <col min="3" max="3" width="12.3928571428571" style="2" customWidth="1"/>
@@ -1200,6 +1203,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2">
+        <v>30005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140"/>
+    <workbookView windowHeight="15140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="4" r:id="rId1"/>
+    <sheet name="道具表" sheetId="5" r:id="rId2"/>
+    <sheet name="奖励表" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +104,30 @@
   </si>
   <si>
     <t>玉扣</t>
+  </si>
+  <si>
+    <t>$type#default=材料</t>
+  </si>
+  <si>
+    <t>狼牙</t>
+  </si>
+  <si>
+    <t>狼皮</t>
+  </si>
+  <si>
+    <t>兽肉</t>
+  </si>
+  <si>
+    <t>ItemList</t>
+  </si>
+  <si>
+    <t>(list#sep=,),int</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>10003 ,10005,20001,20002,20003</t>
   </si>
 </sst>
 </file>
@@ -1069,8 +1095,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
@@ -1214,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>30005</v>
+        <v>30001</v>
       </c>
     </row>
   </sheetData>
@@ -1222,4 +1248,169 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="9.14285714285714" style="2"/>
+    <col min="4" max="4" width="7.88392857142857" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="2">
+        <v>20002</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="2">
+        <v>20003</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="9.14285714285714" style="2"/>
+    <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15140" activeTab="1"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -43,6 +43,9 @@
     <t>$type#default=装备</t>
   </si>
   <si>
+    <t>AtkRange#default=0,0</t>
+  </si>
+  <si>
     <t>EquipType</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>Range</t>
+  </si>
+  <si>
     <t>EEquipType</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>名字</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
     <t>类型</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
   </si>
   <si>
     <t>无锋剑</t>
+  </si>
+  <si>
+    <t>2,4</t>
   </si>
   <si>
     <t>武器</t>
@@ -1093,26 +1105,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16964285714286" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.16964285714286" style="2"/>
-    <col min="3" max="3" width="12.3928571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.7410714285714" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3928571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.4375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5803571428571" style="3" customWidth="1"/>
-    <col min="11" max="13" width="10.5803571428571" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.16964285714286" style="2"/>
+    <col min="1" max="2" width="9.16666666666667" style="2"/>
+    <col min="3" max="3" width="12.3916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.0583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.3916666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="8" max="10" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.5833333333333" style="3" customWidth="1"/>
+    <col min="12" max="14" width="10.5833333333333" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,22 +1144,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1154,92 +1173,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
         <v>30005</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
         <v>30005</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2">
         <v>30003</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
         <v>30001</v>
       </c>
     </row>
@@ -1255,16 +1280,16 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="9.14285714285714" style="2"/>
-    <col min="4" max="4" width="7.88392857142857" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.4375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="3" width="9.14166666666667" style="2"/>
+    <col min="4" max="4" width="7.88333333333333" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4416666666667" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1278,24 +1303,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1305,16 +1330,16 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1322,7 +1347,7 @@
         <v>20001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1330,7 +1355,7 @@
         <v>20002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1338,7 +1363,7 @@
         <v>20003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1356,11 +1381,11 @@
       <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="9.14285714285714" style="2"/>
+    <col min="1" max="2" width="9.14166666666667" style="2"/>
     <col min="3" max="3" width="31.25" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="2"/>
+    <col min="4" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
@@ -1371,18 +1396,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1392,13 +1417,13 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1406,7 +1431,7 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -118,10 +118,13 @@
     <t>玉扣</t>
   </si>
   <si>
+    <t>狼牙</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
     <t>$type#default=材料</t>
-  </si>
-  <si>
-    <t>狼牙</t>
   </si>
   <si>
     <t>狼皮</t>
@@ -1105,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1266,6 +1269,20 @@
       </c>
       <c r="G9" s="2">
         <v>30001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2">
+        <v>2001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1303,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1347,7 +1364,7 @@
         <v>20001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -1355,7 +1372,7 @@
         <v>20002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -1363,7 +1380,7 @@
         <v>20003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
@@ -1407,7 +1424,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1423,7 +1440,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1431,7 +1448,7 @@
         <v>10001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="4" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1128,7 +1128,7 @@
     <col min="15" max="16384" width="9.16666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1171,12 +1171,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:11">
       <c r="B5" s="2">
         <v>10001</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
       <c r="B6" s="2">
         <v>10002</v>
       </c>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:11">
       <c r="B7" s="2">
         <v>10003</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:11">
       <c r="B8" s="2">
         <v>10004</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:11">
       <c r="B9" s="2">
         <v>10005</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="1:11">
       <c r="B10" s="2">
         <v>2001</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:5">
       <c r="B5" s="2">
         <v>20001</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="1:5">
       <c r="B6" s="2">
         <v>20002</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="1:5">
       <c r="B7" s="2">
         <v>20003</v>
       </c>
@@ -1394,8 +1394,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1427,7 +1427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:1">
+    <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="1:3">
       <c r="B5" s="2">
         <v>10001</v>
       </c>

--- a/新导表工具/DataTables/Datas/道具表.xlsx
+++ b/新导表工具/DataTables/Datas/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800" activeTab="2"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="武器表" sheetId="4" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16666666666667" defaultRowHeight="15"/>
@@ -1394,7 +1394,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
